--- a/raw_data/recipe_inventory.xlsx
+++ b/raw_data/recipe_inventory.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Concentrated chicken juice</t>
+          <t>Concentrated chicken sauce</t>
         </is>
       </c>
       <c r="D3">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Colorful leaves</t>
+          <t>Pandan leaves</t>
         </is>
       </c>
       <c r="D5">
@@ -766,7 +766,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Red pepper</t>
+          <t>Chilli padi</t>
         </is>
       </c>
       <c r="D9">
@@ -813,7 +813,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Taijiao</t>
+          <t>Thai chilli</t>
         </is>
       </c>
       <c r="D10">
@@ -954,7 +954,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lime water</t>
+          <t>Calamasi</t>
         </is>
       </c>
       <c r="D13">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ginger</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="D15">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Soy sauce fresh</t>
+          <t>Yipinxian dark Soy sauce</t>
         </is>
       </c>
       <c r="D21">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Concentrated chicken juice</t>
+          <t>Concentrated chicken sauce</t>
         </is>
       </c>
       <c r="D23">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ginger</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="D26">
@@ -1584,13 +1584,13 @@
         <v>1.29166666666667</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J26">
         <v>12</v>
       </c>
       <c r="K26">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>0.991189427312775</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J27">
         <v>3.026666666666667</v>
       </c>
       <c r="K27">
-        <v>12.10666666666667</v>
+        <v>13.62</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -1678,13 +1678,13 @@
         <v>52</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Green melon</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="D29">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Chicken Rice Chili</t>
+          <t>Chicken Rice Chilli sauce</t>
         </is>
       </c>
       <c r="D32">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jiang Rong</t>
+          <t>Ginger paste</t>
         </is>
       </c>
       <c r="D33">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Chicken rice soy sauce</t>
+          <t>Chicken rice dark soy sauce</t>
         </is>
       </c>
       <c r="D34">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chicken rice soy</t>
+          <t>Chicken rice dark soy sauce</t>
         </is>
       </c>
       <c r="D36">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Angelica</t>
+          <t>Angelica Root Slices</t>
         </is>
       </c>
       <c r="D38">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Codonopsis ginseng</t>
+          <t>Dang sheng</t>
         </is>
       </c>
       <c r="D45">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Calamari</t>
+          <t>cinnamon</t>
         </is>
       </c>
       <c r="D46">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pepper granules</t>
+          <t>Pepper</t>
         </is>
       </c>
       <c r="D47">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Green melon</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="D48">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chicken Rice Chili</t>
+          <t>Chicken Rice Chilli sauce</t>
         </is>
       </c>
       <c r="D50">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Jiang Rong</t>
+          <t>Ginger paste</t>
         </is>
       </c>
       <c r="D51">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chicken rice soy sauce</t>
+          <t>Chicken rice dark soy sauce</t>
         </is>
       </c>
       <c r="D52">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chicken rice soy</t>
+          <t>Chicken rice dark soy sauce</t>
         </is>
       </c>
       <c r="D53">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bean soak</t>
+          <t>deep fried tofu</t>
         </is>
       </c>
       <c r="D56">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Laksa Juice</t>
+          <t>Laksa paste</t>
         </is>
       </c>
       <c r="D57">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Coarse rice noodles</t>
+          <t>Thick bee hoon</t>
         </is>
       </c>
       <c r="D62">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sanba sauce</t>
+          <t>sambal sauce</t>
         </is>
       </c>
       <c r="D63">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Green melon</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="D64">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chicken Rice Chili</t>
+          <t>Chicken Rice Chilli sauce</t>
         </is>
       </c>
       <c r="D66">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jiang Rong</t>
+          <t>Ginger paste</t>
         </is>
       </c>
       <c r="D67">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chicken rice soy sauce</t>
+          <t>Chicken rice dark soy sauce</t>
         </is>
       </c>
       <c r="D68">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Chicken rice soy</t>
+          <t>Chicken rice dark soy sauce</t>
         </is>
       </c>
       <c r="D69">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>crystal sugar</t>
+          <t>rock sugar</t>
         </is>
       </c>
       <c r="D75">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Shrimp rice</t>
+          <t>dried shrimp</t>
         </is>
       </c>
       <c r="D76">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Empty milk</t>
+          <t>evaporated milk</t>
         </is>
       </c>
       <c r="D78">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bean soak</t>
+          <t>deep fried tofu</t>
         </is>
       </c>
       <c r="D79">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Laksa Juice</t>
+          <t>Laksa paste</t>
         </is>
       </c>
       <c r="D80">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Coarse rice noodles</t>
+          <t>Thick bee hoon</t>
         </is>
       </c>
       <c r="D82">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sanba sauce</t>
+          <t>sambal sauce</t>
         </is>
       </c>
       <c r="D83">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>crystal sugar</t>
+          <t>rock sugar</t>
         </is>
       </c>
       <c r="D89">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Shrimp rice</t>
+          <t>dried shrimp</t>
         </is>
       </c>
       <c r="D91">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Empty milk</t>
+          <t>evaporated milk</t>
         </is>
       </c>
       <c r="D93">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Bean soak</t>
+          <t>deep fried tofu</t>
         </is>
       </c>
       <c r="D94">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Laksa Juice</t>
+          <t>Laksa paste</t>
         </is>
       </c>
       <c r="D95">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Coarse rice noodles</t>
+          <t>Thick bee hoon</t>
         </is>
       </c>
       <c r="D96">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sanba sauce</t>
+          <t>sambal sauce</t>
         </is>
       </c>
       <c r="D97">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fat cow</t>
+          <t>beef</t>
         </is>
       </c>
       <c r="D99">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>crystal sugar</t>
+          <t>rock sugar</t>
         </is>
       </c>
       <c r="D103">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Shrimp rice</t>
+          <t>dried shrimp</t>
         </is>
       </c>
       <c r="D105">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Empty milk</t>
+          <t>evaporated milk</t>
         </is>
       </c>
       <c r="D107">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mi Siang sauce</t>
+          <t>MeeSiam sauce</t>
         </is>
       </c>
       <c r="D109">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sand sugar</t>
+          <t>fine sugar</t>
         </is>
       </c>
       <c r="D114">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bean soak</t>
+          <t>deep fried tofu</t>
         </is>
       </c>
       <c r="D116">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sanba sauce</t>
+          <t>sambal sauce</t>
         </is>
       </c>
       <c r="D118">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fried rice noodles</t>
+          <t>Fried bee hoon</t>
         </is>
       </c>
       <c r="D121">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mi Siam Juice</t>
+          <t>MeeSiam gravy</t>
         </is>
       </c>
       <c r="D122">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Qingliang</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="D124">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Empty milk</t>
+          <t>evaporated milk</t>
         </is>
       </c>
       <c r="D131">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Big chicken legs</t>
+          <t>Big chicken drumstick</t>
         </is>
       </c>
       <c r="D134">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Curry juice</t>
+          <t>Curry gravy</t>
         </is>
       </c>
       <c r="D136">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Concentrated chicken juice</t>
+          <t>Concentrated chicken sauce</t>
         </is>
       </c>
       <c r="D142">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>chicken meat</t>
         </is>
       </c>
       <c r="D147">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Silver teeth</t>
+          <t>sliver sprout</t>
         </is>
       </c>
       <c r="D149">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Malay chicken soup</t>
+          <t>Malaysia chicken soup pack</t>
         </is>
       </c>
       <c r="D152">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Chicken shredded</t>
+          <t>shredded Chicken</t>
         </is>
       </c>
       <c r="D154">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Yellow face</t>
+          <t>Yellow noodle</t>
         </is>
       </c>
       <c r="D155">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Shrimp soup ingredients</t>
+          <t>prawn soup ingredients pack</t>
         </is>
       </c>
       <c r="D160">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Yellow face</t>
+          <t>Yellow noodle</t>
         </is>
       </c>
       <c r="D162">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Shrimp soup</t>
+          <t>prawn soup</t>
         </is>
       </c>
       <c r="D163">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Generalist</t>
+          <t>kang kong</t>
         </is>
       </c>
       <c r="D165">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>fillet</t>
+          <t>fish slices</t>
         </is>
       </c>
       <c r="D166">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Green melon</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="D181">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Male fish roe</t>
+          <t>fish roe</t>
         </is>
       </c>
       <c r="D185">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>meal</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="D187">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Samba sauce</t>
+          <t>Sambal sauce</t>
         </is>
       </c>
       <c r="D188">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Lock noodle sauce</t>
+          <t>dry noodle sauce</t>
         </is>
       </c>
       <c r="D189">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Dried beans</t>
+          <t>Tau kwa</t>
         </is>
       </c>
       <c r="D193">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Sour tangerine</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="D194">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Lock noodle sauce</t>
+          <t>dry noodle sauce</t>
         </is>
       </c>
       <c r="D196">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Sand sugar</t>
+          <t>fine sugar</t>
         </is>
       </c>
       <c r="D200">
@@ -9790,7 +9790,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Pork Blossom</t>
+          <t>Pork Belly</t>
         </is>
       </c>
       <c r="D201">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Green melon</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="D206">
@@ -10206,11 +10206,6 @@
           <t>Kaya glutinous rice</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Kaya glutinous rice</t>
-        </is>
-      </c>
       <c r="C210" t="inlineStr">
         <is>
           <t>Coconut milk</t>
@@ -10253,11 +10248,6 @@
           <t>Kaya glutinous rice</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Kaya glutinous rice</t>
-        </is>
-      </c>
       <c r="C211" t="inlineStr">
         <is>
           <t>Sticky rice</t>
@@ -10300,14 +10290,9 @@
           <t>Kaya glutinous rice</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Kaya glutinous rice</t>
-        </is>
-      </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Butterfly bean flower</t>
+          <t>Butterfly pea</t>
         </is>
       </c>
       <c r="D212">
@@ -10347,11 +10332,6 @@
           <t>Kaya glutinous rice</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Kaya glutinous rice</t>
-        </is>
-      </c>
       <c r="C213" t="inlineStr">
         <is>
           <t>Kaya sauce</t>
@@ -10394,11 +10374,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C214" t="inlineStr">
         <is>
           <t>Chicken powder</t>
@@ -10441,11 +10416,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C215" t="inlineStr">
         <is>
           <t>sesame oil</t>
@@ -10488,11 +10458,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C216" t="inlineStr">
         <is>
           <t>lemongrass</t>
@@ -10535,11 +10500,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C217" t="inlineStr">
         <is>
           <t>Chicken full wings</t>
@@ -10582,11 +10542,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C218" t="inlineStr">
         <is>
           <t>Shrimp sauce</t>
@@ -10629,11 +10584,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C219" t="inlineStr">
         <is>
           <t>Oyster sauce</t>
@@ -10676,11 +10626,6 @@
           <t>Chicken Wings with Shrimp Sauce</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Chicken Wings with Shrimp Sauce</t>
-        </is>
-      </c>
       <c r="C220" t="inlineStr">
         <is>
           <t>Huadiao wine</t>
@@ -10723,14 +10668,9 @@
           <t>Sangba Fish Egg</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Sangba Fish Egg</t>
-        </is>
-      </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Samba sauce</t>
+          <t>Sambal sauce</t>
         </is>
       </c>
       <c r="D221">
@@ -10770,14 +10710,9 @@
           <t>Sangba Fish Egg</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Sangba Fish Egg</t>
-        </is>
-      </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>White fish egg</t>
+          <t>fish ball</t>
         </is>
       </c>
       <c r="D222">
@@ -10817,11 +10752,6 @@
           <t>Sangba Fish Egg</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Sangba Fish Egg</t>
-        </is>
-      </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>Tomato juice</t>
@@ -11247,7 +11177,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Peanut butter</t>
+          <t>Peanut butter sauce</t>
         </is>
       </c>
       <c r="D232">
@@ -11294,7 +11224,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>fermented beancurd</t>
         </is>
       </c>
       <c r="D233">
@@ -11341,7 +11271,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Southern breast</t>
+          <t>fermented beancurd</t>
         </is>
       </c>
       <c r="D234">
@@ -11435,7 +11365,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>maltose</t>
+          <t>malt sugar</t>
         </is>
       </c>
       <c r="D236">
@@ -11482,7 +11412,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Sanba sauce</t>
+          <t>sambal sauce</t>
         </is>
       </c>
       <c r="D237">
@@ -11569,14 +11499,9 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Concentrated chicken juice</t>
+          <t>Concentrated chicken sauce</t>
         </is>
       </c>
       <c r="D239">
@@ -11616,11 +11541,6 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C240" t="inlineStr">
         <is>
           <t>Salt</t>
@@ -11663,11 +11583,6 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C241" t="inlineStr">
         <is>
           <t>Ribs and pork chops</t>
@@ -11710,14 +11625,9 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Bak Kut Teh Sauce Bread</t>
+          <t>Bak Kut Teh Sauce Pack</t>
         </is>
       </c>
       <c r="D242">
@@ -11757,11 +11667,6 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C243" t="inlineStr">
         <is>
           <t>crystal sugar</t>
@@ -11804,11 +11709,6 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C244" t="inlineStr">
         <is>
           <t>Chicken powder</t>
@@ -11851,11 +11751,6 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C245" t="inlineStr">
         <is>
           <t>pepper</t>
@@ -11898,14 +11793,9 @@
           <t>Bak Kut Teh</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Bak Kut Teh</t>
-        </is>
-      </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Fried noodles</t>
+          <t>youtiao</t>
         </is>
       </c>
       <c r="D246">
@@ -11945,14 +11835,9 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Concentrated chicken juice</t>
+          <t>Concentrated chicken sauce</t>
         </is>
       </c>
       <c r="D247">
@@ -11992,11 +11877,6 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C248" t="inlineStr">
         <is>
           <t>Salt</t>
@@ -12039,11 +11919,6 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C249" t="inlineStr">
         <is>
           <t>Ribs and pork chops</t>
@@ -12086,14 +11961,9 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Bak Kut Teh Sauce Bread</t>
+          <t>Bak Kut Teh Sauce Pack</t>
         </is>
       </c>
       <c r="D250">
@@ -12133,11 +12003,6 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C251" t="inlineStr">
         <is>
           <t>Chicken powder</t>
@@ -12180,14 +12045,9 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>crystal sugar</t>
+          <t>rock sugar</t>
         </is>
       </c>
       <c r="D252">
@@ -12227,14 +12087,9 @@
           <t>Hainan Chicken Kow Teh Set Meal</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Hainan Chicken Kow Teh Set Meal</t>
-        </is>
-      </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Fried noodles</t>
+          <t>youtiao</t>
         </is>
       </c>
       <c r="D253">
@@ -12274,14 +12129,9 @@
           <t>Big shrimp laksa</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Big shrimp laksa</t>
-        </is>
-      </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Coarse rice noodles</t>
+          <t>Thick bee hoon</t>
         </is>
       </c>
       <c r="D254">
@@ -12321,14 +12171,9 @@
           <t>Big shrimp laksa</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Big shrimp laksa</t>
-        </is>
-      </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Sanba sauce</t>
+          <t>sambal sauce</t>
         </is>
       </c>
       <c r="D255">
@@ -12368,11 +12213,6 @@
           <t>Big shrimp laksa</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Big shrimp laksa</t>
-        </is>
-      </c>
       <c r="C256" t="inlineStr">
         <is>
           <t>egg</t>
@@ -12415,11 +12255,6 @@
           <t>Big shrimp laksa</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Big shrimp laksa</t>
-        </is>
-      </c>
       <c r="C257" t="inlineStr">
         <is>
           <t>Sprout</t>
@@ -12462,14 +12297,9 @@
           <t>Big shrimp laksa</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Big shrimp laksa</t>
-        </is>
-      </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Laksa Juice</t>
+          <t>Laksa paste</t>
         </is>
       </c>
       <c r="D258">
@@ -12509,11 +12339,6 @@
           <t>Big shrimp laksa</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Big shrimp laksa</t>
-        </is>
-      </c>
       <c r="C259" t="inlineStr">
         <is>
           <t>Cooked shrimp</t>
@@ -12556,14 +12381,9 @@
           <t>Steamed Vermicelli Roll</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Steamed Vermicelli Roll</t>
-        </is>
-      </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Steamed Vermicelli Roll</t>
+          <t>Steamed rice roll</t>
         </is>
       </c>
       <c r="D260">
@@ -12603,11 +12423,6 @@
           <t>Steamed Vermicelli Roll</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Steamed Vermicelli Roll</t>
-        </is>
-      </c>
       <c r="C261" t="inlineStr">
         <is>
           <t>Sesame</t>
@@ -12650,11 +12465,6 @@
           <t>Steamed Vermicelli Roll</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Steamed Vermicelli Roll</t>
-        </is>
-      </c>
       <c r="C262" t="inlineStr">
         <is>
           <t>Dried onion</t>
@@ -12697,14 +12507,9 @@
           <t>Steamed Vermicelli Roll</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Steamed Vermicelli Roll</t>
-        </is>
-      </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Noodle sauce</t>
+          <t>rice roll sauce</t>
         </is>
       </c>
       <c r="D263">
